--- a/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>153550</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132743</v>
+        <v>133891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175299</v>
+        <v>173967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2212495697194642</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1912696910792558</v>
+        <v>0.1929238099085405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2525872789014393</v>
+        <v>0.2506687403765108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -765,19 +765,19 @@
         <v>205431</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181991</v>
+        <v>182035</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229440</v>
+        <v>227416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2984388981854657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2643873359657155</v>
+        <v>0.2644515432544424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3333183302514977</v>
+        <v>0.3303775519067365</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -786,19 +786,19 @@
         <v>358981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>325799</v>
+        <v>326171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391195</v>
+        <v>391501</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2596861798737409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2356829417401667</v>
+        <v>0.2359515387530874</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2829898711023532</v>
+        <v>0.2832113134472036</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>540462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518713</v>
+        <v>520045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561269</v>
+        <v>560121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7787504302805358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7474127210985606</v>
+        <v>0.7493312596234888</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8087303089207442</v>
+        <v>0.8070761900914595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -836,19 +836,19 @@
         <v>482920</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458911</v>
+        <v>460935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>506360</v>
+        <v>506316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7015611018145342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6666816697485023</v>
+        <v>0.6696224480932635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7356126640342845</v>
+        <v>0.7355484567455576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1016</v>
@@ -857,19 +857,19 @@
         <v>1023382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>991168</v>
+        <v>990862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1056564</v>
+        <v>1056192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.740313820126259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7170101288976468</v>
+        <v>0.7167886865527965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7643170582598334</v>
+        <v>0.7640484612469126</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>149995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128029</v>
+        <v>127863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173230</v>
+        <v>171086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1559527322272143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1331139158902297</v>
+        <v>0.1329409117037077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.18010977330828</v>
+        <v>0.177881382457438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -982,19 +982,19 @@
         <v>258429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>232920</v>
+        <v>231438</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>288422</v>
+        <v>287082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2668635460493426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2405226865374621</v>
+        <v>0.2389921296781071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2978359044451295</v>
+        <v>0.2964521573587892</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>385</v>
@@ -1003,19 +1003,19 @@
         <v>408424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>372054</v>
+        <v>371721</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>445559</v>
+        <v>445111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2115975608271692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1927548001278949</v>
+        <v>0.1925823600049648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2308365902843747</v>
+        <v>0.2306043780115563</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>811805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>788570</v>
+        <v>790714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>833771</v>
+        <v>833937</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8440472677727857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8198902266917196</v>
+        <v>0.822118617542562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8668860841097703</v>
+        <v>0.8670590882962923</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>669</v>
@@ -1053,19 +1053,19 @@
         <v>709964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>679971</v>
+        <v>681311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>735473</v>
+        <v>736955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7331364539506574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7021640955548701</v>
+        <v>0.703547842641211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.759477313462538</v>
+        <v>0.7610078703218929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1419</v>
@@ -1074,19 +1074,19 @@
         <v>1521769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1484634</v>
+        <v>1485082</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1558139</v>
+        <v>1558472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7884024391728308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7691634097156256</v>
+        <v>0.7693956219884439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8072451998721051</v>
+        <v>0.8074176399950352</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>131057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110304</v>
+        <v>109121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154548</v>
+        <v>152318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1931541815764873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1625689392400252</v>
+        <v>0.160824358238986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2277764819456315</v>
+        <v>0.2244886179461018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -1199,19 +1199,19 @@
         <v>239818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>217505</v>
+        <v>214671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265671</v>
+        <v>264705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3506932141284938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3180637611458676</v>
+        <v>0.3139191388637826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.388498282951373</v>
+        <v>0.3870860353187234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>370</v>
@@ -1220,19 +1220,19 @@
         <v>370875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>340452</v>
+        <v>339654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>406521</v>
+        <v>404528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2722319950021211</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2499003047101339</v>
+        <v>0.2493146683729058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2983967312657726</v>
+        <v>0.2969336398504226</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>547452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523961</v>
+        <v>526191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>568205</v>
+        <v>569388</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8068458184235128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7722235180543685</v>
+        <v>0.7755113820538984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8374310607599748</v>
+        <v>0.8391756417610142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>452</v>
@@ -1270,19 +1270,19 @@
         <v>444023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>418170</v>
+        <v>419136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466336</v>
+        <v>469170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6493067858715061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.611501717048627</v>
+        <v>0.6129139646812765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6819362388541325</v>
+        <v>0.6860808611362169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>967</v>
@@ -1291,19 +1291,19 @@
         <v>991475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>955829</v>
+        <v>957822</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1021898</v>
+        <v>1022696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7277680049978789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7016032687342274</v>
+        <v>0.7030663601495774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7500996952898662</v>
+        <v>0.7506853316270941</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>161082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137600</v>
+        <v>138805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182654</v>
+        <v>184490</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1709591834751013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1460377630571203</v>
+        <v>0.1473163169403614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1938543484461135</v>
+        <v>0.1958036291240148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>268</v>
@@ -1416,19 +1416,19 @@
         <v>283028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>255234</v>
+        <v>254981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>310681</v>
+        <v>311720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2725059219818654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2457453123276791</v>
+        <v>0.2455019737360761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2991310287474279</v>
+        <v>0.3001316853189536</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>441</v>
@@ -1437,19 +1437,19 @@
         <v>444109</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>411046</v>
+        <v>408527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>479989</v>
+        <v>480359</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2242032494507812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.207511341978184</v>
+        <v>0.2062399547561074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2423165589131155</v>
+        <v>0.2425033245379735</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>781140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>759568</v>
+        <v>757732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>804622</v>
+        <v>803417</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8290408165248987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8061456515538865</v>
+        <v>0.8041963708759851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8539622369428796</v>
+        <v>0.8526836830596384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>729</v>
@@ -1487,19 +1487,19 @@
         <v>755584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>727931</v>
+        <v>726892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>783378</v>
+        <v>783631</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7274940780181346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7008689712525721</v>
+        <v>0.6998683146810463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.754254687672321</v>
+        <v>0.7544980262639239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1550</v>
@@ -1508,19 +1508,19 @@
         <v>1536725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1500845</v>
+        <v>1500475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1569788</v>
+        <v>1572307</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7757967505492188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7576834410868842</v>
+        <v>0.7574966754620266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7924886580218159</v>
+        <v>0.7937600452438927</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>595684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1818024517021065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -1633,19 +1633,19 @@
         <v>986706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2919941708547434</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1559</v>
@@ -1654,19 +1654,19 @@
         <v>1582390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2377480754111515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2680859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2338</v>
@@ -1704,19 +1704,19 @@
         <v>2392491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4952</v>
@@ -1725,19 +1725,19 @@
         <v>5073351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>131752</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110247</v>
+        <v>111320</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153974</v>
+        <v>152451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1888066153587385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1579889487253519</v>
+        <v>0.1595258317376267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2206508712161806</v>
+        <v>0.2184692851325957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>219</v>
@@ -2090,19 +2090,19 @@
         <v>236634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>211251</v>
+        <v>211621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>262727</v>
+        <v>262215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3403939710287072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3038810829076716</v>
+        <v>0.3044128559842849</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.377928792996842</v>
+        <v>0.3771926512146851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>344</v>
@@ -2111,19 +2111,19 @@
         <v>368386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>331505</v>
+        <v>338034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>399894</v>
+        <v>406675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2644566257334257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.23798058630543</v>
+        <v>0.2426674307308073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2870757376982722</v>
+        <v>0.2919434467031112</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>566064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>543842</v>
+        <v>545365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>587569</v>
+        <v>586496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8111933846412615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7793491287838196</v>
+        <v>0.7815307148674043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8420110512746484</v>
+        <v>0.8404741682623734</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>429</v>
@@ -2161,19 +2161,19 @@
         <v>458542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432449</v>
+        <v>432961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483925</v>
+        <v>483555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6596060289712928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.622071207003158</v>
+        <v>0.6228073487853145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6961189170923282</v>
+        <v>0.6955871440157151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>972</v>
@@ -2182,19 +2182,19 @@
         <v>1024606</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993098</v>
+        <v>986317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1061487</v>
+        <v>1054958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7355433742665743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7129242623017278</v>
+        <v>0.7080565532968889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7620194136945699</v>
+        <v>0.7573325692691928</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>210071</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183185</v>
+        <v>187028</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>237587</v>
+        <v>237931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.207264979014714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1807376723109755</v>
+        <v>0.1845296914695011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2344130371844929</v>
+        <v>0.2347524214849676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -2307,19 +2307,19 @@
         <v>324129</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>294489</v>
+        <v>293240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356969</v>
+        <v>355815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3146290957323828</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.28585767562682</v>
+        <v>0.2846456156363054</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.346506954662789</v>
+        <v>0.3453866085051834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>486</v>
@@ -2328,19 +2328,19 @@
         <v>534200</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>492176</v>
+        <v>492910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572706</v>
+        <v>572633</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2613844362421847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2408221308697742</v>
+        <v>0.2411812269424382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2802256214188779</v>
+        <v>0.280189594056399</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>803469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>775953</v>
+        <v>775609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>830355</v>
+        <v>826512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.792735020985286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7655869628155066</v>
+        <v>0.7652475785150322</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8192623276890245</v>
+        <v>0.8154703085304988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>642</v>
@@ -2378,19 +2378,19 @@
         <v>706064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>673224</v>
+        <v>674378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>735704</v>
+        <v>736953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6853709042676173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6534930453372109</v>
+        <v>0.6546133914948169</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7141423243731798</v>
+        <v>0.7153543843636948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1385</v>
@@ -2399,19 +2399,19 @@
         <v>1509533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1471027</v>
+        <v>1471100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1551557</v>
+        <v>1550823</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7386155637578153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7197743785811219</v>
+        <v>0.719810405943601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7591778691302258</v>
+        <v>0.758818773057562</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>100680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81177</v>
+        <v>80591</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120919</v>
+        <v>121144</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1334368089388146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1075881831493477</v>
+        <v>0.1068115106460968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1602608473261876</v>
+        <v>0.1605596774660785</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -2524,19 +2524,19 @@
         <v>219953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197259</v>
+        <v>196873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>246441</v>
+        <v>247810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2830168856662557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2538152393065567</v>
+        <v>0.2533184816586682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3170991844879166</v>
+        <v>0.3188605361217677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>290</v>
@@ -2545,19 +2545,19 @@
         <v>320633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288317</v>
+        <v>286564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>355351</v>
+        <v>355390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.20933336623764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1882349054950844</v>
+        <v>0.1870906167175717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2319999404236999</v>
+        <v>0.2320253569124645</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>653833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633594</v>
+        <v>633369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673336</v>
+        <v>673922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8665631910611854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8397391526738124</v>
+        <v>0.8394403225339215</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8924118168506523</v>
+        <v>0.8931884893539032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>503</v>
@@ -2595,19 +2595,19 @@
         <v>557221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>530733</v>
+        <v>529364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>579915</v>
+        <v>580301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7169831143337444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6829008155120834</v>
+        <v>0.681139463878232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7461847606934432</v>
+        <v>0.7466815183413312</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1101</v>
@@ -2616,19 +2616,19 @@
         <v>1211054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1176336</v>
+        <v>1176297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1243370</v>
+        <v>1245123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7906666337623599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7680000595763</v>
+        <v>0.7679746430875355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8117650945049156</v>
+        <v>0.8129093832824283</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>200923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174664</v>
+        <v>176825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228593</v>
+        <v>228620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2128833759109895</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.185061360487389</v>
+        <v>0.187350522663968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2422001374098357</v>
+        <v>0.2422292489592375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -2741,19 +2741,19 @@
         <v>332951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>303368</v>
+        <v>302176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>367268</v>
+        <v>363604</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3165230631056187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2883995436198207</v>
+        <v>0.2872666599316063</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3491466382190661</v>
+        <v>0.3456636065210937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>499</v>
@@ -2762,19 +2762,19 @@
         <v>533874</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494890</v>
+        <v>493209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>575125</v>
+        <v>575913</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2675096501901691</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2479758729286803</v>
+        <v>0.2471336058559293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2881793263295946</v>
+        <v>0.2885741827803298</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>742895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>715225</v>
+        <v>715198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>769154</v>
+        <v>766993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7871166240890105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7577998625901643</v>
+        <v>0.7577707510407624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.814938639512611</v>
+        <v>0.8126494773360319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>688</v>
@@ -2812,19 +2812,19 @@
         <v>718950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>684633</v>
+        <v>688297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>748533</v>
+        <v>749725</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6834769368943813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6508533617809339</v>
+        <v>0.6543363934789064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7116004563801793</v>
+        <v>0.7127333400683935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1410</v>
@@ -2833,19 +2833,19 @@
         <v>1461845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1420594</v>
+        <v>1419806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1500829</v>
+        <v>1502510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7324903498098309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7118206736704052</v>
+        <v>0.7114258172196701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7520241270713197</v>
+        <v>0.7528663941440704</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>643427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1887054780622702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1032</v>
@@ -2958,19 +2958,19 @@
         <v>1113667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.313316710540547</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1619</v>
@@ -2979,19 +2979,19 @@
         <v>1757093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2523061766253672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2766260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2723065</v>
+        <v>2715013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2814838</v>
+        <v>2814760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8112945219377298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7986260583310041</v>
+        <v>0.7962645229059032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8255415686599425</v>
+        <v>0.825518629123536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2262</v>
@@ -3029,19 +3029,19 @@
         <v>2440777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2380978</v>
+        <v>2388389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2497056</v>
+        <v>2496621</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.686683289459453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6698595702719138</v>
+        <v>0.6719445293685328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7025165977550997</v>
+        <v>0.7023941896291402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4868</v>
@@ -3050,19 +3050,19 @@
         <v>5207038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5123634</v>
+        <v>5129722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5274771</v>
+        <v>5278416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7476938233746327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7357176925927976</v>
+        <v>0.7365918489967924</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7574197895231098</v>
+        <v>0.7579431913304323</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>137040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117738</v>
+        <v>116903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159754</v>
+        <v>159155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2048282349504603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1759776886453349</v>
+        <v>0.1747294561548082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2387771417319385</v>
+        <v>0.2378817892805275</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -3415,19 +3415,19 @@
         <v>216432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189143</v>
+        <v>193406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239214</v>
+        <v>244732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3249432426655393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2839729632002513</v>
+        <v>0.290373597130041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3591480515180417</v>
+        <v>0.3674328762895748</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>337</v>
@@ -3436,19 +3436,19 @@
         <v>353472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>323639</v>
+        <v>320382</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>387319</v>
+        <v>385923</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.264751289377535</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2424065312238591</v>
+        <v>0.2399668917605287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2901029171940926</v>
+        <v>0.2890576024922292</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>532009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>509295</v>
+        <v>509894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>551311</v>
+        <v>552146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7951717650495397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7612228582680616</v>
+        <v>0.7621182107194725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8240223113546652</v>
+        <v>0.8252705438451917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>456</v>
@@ -3486,19 +3486,19 @@
         <v>449628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>426846</v>
+        <v>421328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>476917</v>
+        <v>472654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6750567573344607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6408519484819584</v>
+        <v>0.6325671237104253</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7160270367997488</v>
+        <v>0.709626402869959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>968</v>
@@ -3507,19 +3507,19 @@
         <v>981637</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>947790</v>
+        <v>949186</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1011470</v>
+        <v>1014727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.735248710622465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.709897082805908</v>
+        <v>0.7109423975077708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.757593468776141</v>
+        <v>0.7600331082394713</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>189879</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162589</v>
+        <v>164220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212647</v>
+        <v>215291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1868955637399061</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1600340768852429</v>
+        <v>0.1616397610249596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2093056638254613</v>
+        <v>0.2119076940607024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>280</v>
@@ -3632,19 +3632,19 @@
         <v>314999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280340</v>
+        <v>285967</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>344308</v>
+        <v>347200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.302930609517603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2695995332044376</v>
+        <v>0.2750105917174933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3311164370605438</v>
+        <v>0.3338973357953174</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>464</v>
@@ -3653,19 +3653,19 @@
         <v>504879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>463324</v>
+        <v>467681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>543586</v>
+        <v>548864</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2455868609460821</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2253732737088177</v>
+        <v>0.2274929590304207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2644153047472686</v>
+        <v>0.2669822827618413</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>826086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>803318</v>
+        <v>800674</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>853376</v>
+        <v>851745</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8131044362600939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7906943361745388</v>
+        <v>0.7880923059392977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8399659231147572</v>
+        <v>0.8383602389750406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>694</v>
@@ -3703,19 +3703,19 @@
         <v>724841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>695532</v>
+        <v>692640</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>759500</v>
+        <v>753873</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.697069390482397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6688835629394563</v>
+        <v>0.6661026642046829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7304004667955625</v>
+        <v>0.7249894082825068</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1455</v>
@@ -3724,19 +3724,19 @@
         <v>1550926</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1512219</v>
+        <v>1506941</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1592481</v>
+        <v>1588124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7544131390539179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7355846952527314</v>
+        <v>0.7330177172381588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7746267262911825</v>
+        <v>0.7725070409695796</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>130331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108532</v>
+        <v>110294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151250</v>
+        <v>152254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1731451282365622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1441857397207139</v>
+        <v>0.146525823758878</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2009359178347884</v>
+        <v>0.2022697313137299</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -3849,19 +3849,19 @@
         <v>206681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184591</v>
+        <v>181780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>235716</v>
+        <v>233096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2654870788562457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.237111208416438</v>
+        <v>0.233500802070564</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3027832931966912</v>
+        <v>0.2994170256989485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -3870,19 +3870,19 @@
         <v>337012</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301642</v>
+        <v>307141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>370478</v>
+        <v>372235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2200931856113102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1969937541546872</v>
+        <v>0.2005851468395864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2419486362183804</v>
+        <v>0.2430962361379425</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>622395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601476</v>
+        <v>600472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>644194</v>
+        <v>642432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8268548717634377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7990640821652121</v>
+        <v>0.7977302686862703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.855814260279287</v>
+        <v>0.8534741762411221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>547</v>
@@ -3920,19 +3920,19 @@
         <v>571817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542782</v>
+        <v>545402</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>593907</v>
+        <v>596718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7345129211437542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6972167068033088</v>
+        <v>0.7005829743010513</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.762888791583562</v>
+        <v>0.7664991979294358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1116</v>
@@ -3941,19 +3941,19 @@
         <v>1194212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1160746</v>
+        <v>1158989</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1229582</v>
+        <v>1224083</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7799068143886898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7580513637816195</v>
+        <v>0.7569037638620575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8030062458453128</v>
+        <v>0.7994148531604135</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>168076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145778</v>
+        <v>147242</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194769</v>
+        <v>196089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1803600297983875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1564327864551265</v>
+        <v>0.1580032689255905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2090043814261391</v>
+        <v>0.2104215049927997</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>237</v>
@@ -4066,19 +4066,19 @@
         <v>276661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245997</v>
+        <v>246693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308399</v>
+        <v>306125</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2666381321385689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2370849778427125</v>
+        <v>0.2377554268873536</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2972256755672364</v>
+        <v>0.2950343066844347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>403</v>
@@ -4087,19 +4087,19 @@
         <v>444737</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>407979</v>
+        <v>405055</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>481966</v>
+        <v>479423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2258143552555892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.207150840360263</v>
+        <v>0.2056658110681405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2447176243464112</v>
+        <v>0.2434261662388792</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>763813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>737120</v>
+        <v>735800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786111</v>
+        <v>784647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8196399702016125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7909956185738608</v>
+        <v>0.7895784950072002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8435672135448734</v>
+        <v>0.8419967310744094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>716</v>
@@ -4137,19 +4137,19 @@
         <v>760930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>729192</v>
+        <v>731466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791594</v>
+        <v>790898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7333618678614311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7027743244327637</v>
+        <v>0.7049656933155652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7629150221572876</v>
+        <v>0.7622445731126464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1476</v>
@@ -4158,19 +4158,19 @@
         <v>1524743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1487514</v>
+        <v>1490057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1561501</v>
+        <v>1564425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7741856447444108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7552823756535888</v>
+        <v>0.7565738337611206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.792849159639737</v>
+        <v>0.7943341889318593</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>625326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1855770593163876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>903</v>
@@ -4283,19 +4283,19 @@
         <v>1014774</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2881251362814253</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1509</v>
@@ -4304,19 +4304,19 @@
         <v>1640099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2379846585917866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2744304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2695059</v>
+        <v>2700275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2789999</v>
+        <v>2792580</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8144229406836124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7998086855079141</v>
+        <v>0.8013564155429814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8279836696260008</v>
+        <v>0.8287498626844544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2413</v>
@@ -4354,19 +4354,19 @@
         <v>2507215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2446904</v>
+        <v>2448425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2561718</v>
+        <v>2563596</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7118748637185747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6947506972613677</v>
+        <v>0.6951823915443349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7273497808454599</v>
+        <v>0.7278828968326384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5015</v>
@@ -4375,19 +4375,19 @@
         <v>5251519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5180685</v>
+        <v>5174038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5326460</v>
+        <v>5318182</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7620153414082135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7517370401300809</v>
+        <v>0.7507725652503007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7728896855024416</v>
+        <v>0.7716884119054603</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>211256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>188752</v>
+        <v>186901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239714</v>
+        <v>237420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3062989459227069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2736699650978352</v>
+        <v>0.2709871946673434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3475605830498487</v>
+        <v>0.3442340325517786</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>579</v>
@@ -4740,19 +4740,19 @@
         <v>288516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268041</v>
+        <v>266581</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309656</v>
+        <v>308593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3935494519929415</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3656200117754031</v>
+        <v>0.3636288690931763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.422384995832114</v>
+        <v>0.4209354566513701</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>854</v>
@@ -4761,19 +4761,19 @@
         <v>499772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>467771</v>
+        <v>469222</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532882</v>
+        <v>535669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3512551351295913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3287634495950536</v>
+        <v>0.3297831555022037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3745258492841274</v>
+        <v>0.3764843402765907</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>478449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449991</v>
+        <v>452285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>500953</v>
+        <v>502804</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6937010540772932</v>
+        <v>0.693701054077293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6524394169501514</v>
+        <v>0.6557659674482214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7263300349021647</v>
+        <v>0.7290128053326563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -4811,19 +4811,19 @@
         <v>444597</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423457</v>
+        <v>424520</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>465072</v>
+        <v>466532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6064505480070586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.577615004167886</v>
+        <v>0.5790645433486301</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.634379988224597</v>
+        <v>0.6363711309068238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1114</v>
@@ -4832,19 +4832,19 @@
         <v>923047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>889937</v>
+        <v>887150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>955048</v>
+        <v>953597</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6487448648704086</v>
+        <v>0.6487448648704087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6254741507158724</v>
+        <v>0.6235156597234093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6712365504049463</v>
+        <v>0.6702168444977963</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>250482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222983</v>
+        <v>221568</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279201</v>
+        <v>280099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2393984153530547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2131158818286157</v>
+        <v>0.2117637078499864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2668459670728867</v>
+        <v>0.2677043821532052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>648</v>
@@ -4957,19 +4957,19 @@
         <v>398958</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>374420</v>
+        <v>371078</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>427461</v>
+        <v>428794</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3731373685867484</v>
+        <v>0.3731373685867483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3501868460138978</v>
+        <v>0.3470616323665195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3997952328296525</v>
+        <v>0.4010418413385038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>920</v>
@@ -4978,19 +4978,19 @@
         <v>649441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>611694</v>
+        <v>609670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>690564</v>
+        <v>691780</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3069917858711438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2891487332674355</v>
+        <v>0.2881921371585499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.326430762183436</v>
+        <v>0.3270054150068942</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>795817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>767098</v>
+        <v>766200</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>823316</v>
+        <v>824731</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7606015846469453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7331540329271133</v>
+        <v>0.7322956178467951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.786884118171384</v>
+        <v>0.7882362921500136</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>865</v>
@@ -5028,19 +5028,19 @@
         <v>670242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>641739</v>
+        <v>640406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>694780</v>
+        <v>698122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6268626314132517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6002047671703477</v>
+        <v>0.5989581586614963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6498131539861022</v>
+        <v>0.6529383676334811</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1555</v>
@@ -5049,19 +5049,19 @@
         <v>1466059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1424936</v>
+        <v>1423720</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1503806</v>
+        <v>1505830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6930082141288562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6735692378165642</v>
+        <v>0.6729945849931057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7108512667325645</v>
+        <v>0.7118078628414501</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>192867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168275</v>
+        <v>165237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223180</v>
+        <v>219952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2401610624321027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2095393824775575</v>
+        <v>0.2057554444123084</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2779074590759834</v>
+        <v>0.2738876078245921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>364</v>
@@ -5174,19 +5174,19 @@
         <v>249082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226551</v>
+        <v>226050</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272549</v>
+        <v>272183</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3069016424170883</v>
+        <v>0.3069016424170884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2791408345398746</v>
+        <v>0.2785236788043818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3358161444773792</v>
+        <v>0.3353648650462874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>546</v>
@@ -5195,19 +5195,19 @@
         <v>441949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>407224</v>
+        <v>405682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480058</v>
+        <v>479123</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2737076187033284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2522020662568664</v>
+        <v>0.2512466960803121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2973091569410665</v>
+        <v>0.2967305047282128</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>610206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>579893</v>
+        <v>583121</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>634798</v>
+        <v>637836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7598389375678973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7220925409240168</v>
+        <v>0.7261123921754079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7904606175224425</v>
+        <v>0.7942445555876917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>682</v>
@@ -5245,19 +5245,19 @@
         <v>562520</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539053</v>
+        <v>539419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>585051</v>
+        <v>585552</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6930983575829114</v>
+        <v>0.6930983575829117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6641838555226206</v>
+        <v>0.6646351349537124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7208591654601249</v>
+        <v>0.7214763211956184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1176</v>
@@ -5266,19 +5266,19 @@
         <v>1172726</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1134617</v>
+        <v>1135552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1207451</v>
+        <v>1208993</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7262923812966714</v>
+        <v>0.7262923812966715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.702690843058933</v>
+        <v>0.7032694952717874</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7477979337431335</v>
+        <v>0.7487533039196881</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>278707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249744</v>
+        <v>251051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308304</v>
+        <v>311039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2815043950331007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2522513659395281</v>
+        <v>0.2535706772600311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3113984630564048</v>
+        <v>0.3141609531428392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>707</v>
@@ -5391,19 +5391,19 @@
         <v>448537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>418596</v>
+        <v>423004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>477766</v>
+        <v>478707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.401598713447391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3747912705389141</v>
+        <v>0.3787376040854152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4277689450904659</v>
+        <v>0.4286113328225428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1028</v>
@@ -5412,19 +5412,19 @@
         <v>727244</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>685916</v>
+        <v>684712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>769781</v>
+        <v>771908</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.345165769797996</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3255508365656425</v>
+        <v>0.3249792183957234</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.365355197159393</v>
+        <v>0.3663646574738957</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>711355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681758</v>
+        <v>679023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>740318</v>
+        <v>739011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7184956049668995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6886015369435952</v>
+        <v>0.6858390468571607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7477486340604719</v>
+        <v>0.7464293227399688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>852</v>
@@ -5462,19 +5462,19 @@
         <v>668341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639112</v>
+        <v>638171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698282</v>
+        <v>693874</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5984012865526092</v>
+        <v>0.598401286552609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5722310549095344</v>
+        <v>0.5713886671774573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.625208729461086</v>
+        <v>0.6212623959145847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1537</v>
@@ -5483,19 +5483,19 @@
         <v>1379696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1337159</v>
+        <v>1335032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1421024</v>
+        <v>1422228</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6548342302020039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.634644802840607</v>
+        <v>0.6336353425261044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6744491634343577</v>
+        <v>0.6750207816042769</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>933312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2644588154937038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2298</v>
@@ -5608,19 +5608,19 @@
         <v>1385094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3348</v>
@@ -5629,19 +5629,19 @@
         <v>2318406</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3193425760462913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2595828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2542386</v>
+        <v>2540376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2650675</v>
+        <v>2649787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7355411845062962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7203983068247176</v>
+        <v>0.7198285496108731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7510823362679618</v>
+        <v>0.7508307796044913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3059</v>
@@ -5679,19 +5679,19 @@
         <v>2345700</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2303132</v>
+        <v>2290212</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2402779</v>
+        <v>2394066</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6287401991193883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6173303189473581</v>
+        <v>0.6138672971743856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6440396682994507</v>
+        <v>0.6417041346404769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5382</v>
@@ -5700,19 +5700,19 @@
         <v>4941528</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4871613</v>
+        <v>4869550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5023099</v>
+        <v>5020941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6806574239537088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6710271458692866</v>
+        <v>0.6707430033090775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6918932597912035</v>
+        <v>0.6915959016703718</v>
       </c>
     </row>
     <row r="18">
